--- a/premise/data/additional_inventories/lci-wind-turbines.xlsx
+++ b/premise/data/additional_inventories/lci-wind-turbines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/windisch/windisch/data/lcia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise-johanna/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B294817-C273-6C4C-BF38-ABE7D995F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7826F2B-281D-074B-BA9A-658D0F479D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="760" windowWidth="25560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="760" windowWidth="32100" windowHeight="22720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind turbines" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="196">
   <si>
     <t>Activity</t>
   </si>
@@ -551,6 +551,84 @@
   </si>
   <si>
     <t>grid connector, for wind turbine</t>
+  </si>
+  <si>
+    <t>foundation production, for offshore wind turbine</t>
+  </si>
+  <si>
+    <t>foundation, for offshore wind turbine</t>
+  </si>
+  <si>
+    <t>foundation production, for onshore wind turbine</t>
+  </si>
+  <si>
+    <t>foundation, for onshore wind turbine</t>
+  </si>
+  <si>
+    <t>market for concrete, normal strength</t>
+  </si>
+  <si>
+    <t>concrete, normal strength</t>
+  </si>
+  <si>
+    <t>reinforcing steel</t>
+  </si>
+  <si>
+    <t>market for reinforcing steel</t>
+  </si>
+  <si>
+    <t>Transformation, from pasture, man made</t>
+  </si>
+  <si>
+    <t>square meter</t>
+  </si>
+  <si>
+    <t>Transformation, to traffic area, road network</t>
+  </si>
+  <si>
+    <t>Transformation, to industrial area</t>
+  </si>
+  <si>
+    <t>Occupation, traffic area, road network</t>
+  </si>
+  <si>
+    <t>square meter-year</t>
+  </si>
+  <si>
+    <t>Occupation, industrial area</t>
+  </si>
+  <si>
+    <t>biosphere</t>
+  </si>
+  <si>
+    <t>natural resource::land</t>
+  </si>
+  <si>
+    <t>Originally from ecoinvent v.2/3: wind power plant construction, 2MW, fixed parts [GLO]. Foundation weight: 238'400 kg.</t>
+  </si>
+  <si>
+    <t>gravel, crushed</t>
+  </si>
+  <si>
+    <t>market for gravel, crushed</t>
+  </si>
+  <si>
+    <t>Transformation, from seabed, unspecified</t>
+  </si>
+  <si>
+    <t>Originally from ecoinvent v.2/3: wind power plant construction, 2MW, fixed parts [GLO]. Foundation weight: 2'300'600 kg.</t>
+  </si>
+  <si>
+    <t>treatment of foundation, for onshore wind turbine</t>
+  </si>
+  <si>
+    <t>waste concrete</t>
+  </si>
+  <si>
+    <t>market for waste concrete</t>
+  </si>
+  <si>
+    <t>treatment of foundation, for offshore wind turbine</t>
   </si>
 </sst>
 </file>
@@ -561,9 +639,16 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -598,6 +683,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -618,19 +710,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}">
-  <dimension ref="A1:L403"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E445" sqref="E445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7456,7 +7550,7 @@
       </c>
       <c r="H400"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>63</v>
       </c>
@@ -7478,7 +7572,7 @@
       </c>
       <c r="H401"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>81</v>
       </c>
@@ -7500,7 +7594,7 @@
       </c>
       <c r="H402"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>48</v>
       </c>
@@ -7521,6 +7615,826 @@
         <v>51</v>
       </c>
       <c r="H403"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A406" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A407" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A408" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A409" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A410" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A411" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A413" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J413" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K413" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L413" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A414" s="2" t="str">
+        <f>B405</f>
+        <v>foundation production, for offshore wind turbine</v>
+      </c>
+      <c r="B414" s="2">
+        <v>1</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E414" s="2" t="str">
+        <f>B407</f>
+        <v>GLO</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G414" s="2" t="str">
+        <f>B409</f>
+        <v>foundation, for offshore wind turbine</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A415" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B415" s="2">
+        <v>3.7946622620186037E-4</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E415" t="s">
+        <v>23</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G415" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H415"/>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A416" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B416" s="2">
+        <v>3.4773537338085719E-2</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E416" t="s">
+        <v>4</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" t="s">
+        <v>176</v>
+      </c>
+      <c r="H416"/>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A417" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B417" s="2">
+        <v>0.13040076501782144</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F417" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H417"/>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B418" s="2">
+        <v>9.7800573763366085E-6</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E418"/>
+      <c r="F418" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A419" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B419" s="2">
+        <v>9.7800573763366085E-6</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E419"/>
+      <c r="F419" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A420" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B420" s="2">
+        <v>1.9560114752673215E-4</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F420" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A423" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A425" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A426" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A427" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B428" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A430" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J430" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L430" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A431" s="2" t="str">
+        <f>B422</f>
+        <v>treatment of foundation, for offshore wind turbine</v>
+      </c>
+      <c r="B431" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E431" s="2" t="str">
+        <f>B424</f>
+        <v>GLO</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G431" s="2" t="str">
+        <f>B426</f>
+        <v>foundation, for offshore wind turbine</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>81</v>
+      </c>
+      <c r="B432" s="2">
+        <f>-1*B416</f>
+        <v>-3.4773537338085719E-2</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E432" t="s">
+        <v>29</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G432" t="s">
+        <v>85</v>
+      </c>
+      <c r="H432"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A433" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B433" s="2">
+        <f>-1*B415*2200</f>
+        <v>-0.83482569764409287</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E433" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A437" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A438" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A439" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A440" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A441" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A443" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J443" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L443" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A444" s="2" t="str">
+        <f>B435</f>
+        <v>foundation production, for onshore wind turbine</v>
+      </c>
+      <c r="B444" s="2">
+        <v>1</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E444" s="2" t="str">
+        <f>B437</f>
+        <v>GLO</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G444" s="2" t="str">
+        <f>B439</f>
+        <v>foundation, for onshore wind turbine</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A445" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B445" s="2">
+        <v>4.2785234899328858E-4</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E445" t="s">
+        <v>23</v>
+      </c>
+      <c r="F445" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H445"/>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A446" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B446" s="2">
+        <v>5.8724832214765099E-2</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E446" t="s">
+        <v>4</v>
+      </c>
+      <c r="F446" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G446" t="s">
+        <v>176</v>
+      </c>
+      <c r="H446"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A447" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B447" s="2">
+        <v>4.7021812080536912E-3</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E447"/>
+      <c r="F447" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G447"/>
+      <c r="H447"/>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A448" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B448" s="2">
+        <v>4.1946308724832215E-3</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D448" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F448" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A449" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B449" s="2">
+        <v>5.075503355704698E-4</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F449" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A450" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B450" s="2">
+        <v>0.16778523489932887</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F450" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A451" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2.0302013422818791E-2</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F451" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A454" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A455" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A456" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A457" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A458" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A459" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A461" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J461" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K461" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L461" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A462" s="2" t="str">
+        <f>B453</f>
+        <v>treatment of foundation, for onshore wind turbine</v>
+      </c>
+      <c r="B462" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E462" s="2" t="str">
+        <f>B455</f>
+        <v>GLO</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G462" s="2" t="str">
+        <f>B457</f>
+        <v>foundation, for onshore wind turbine</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>81</v>
+      </c>
+      <c r="B463" s="2">
+        <f>-1*B446</f>
+        <v>-5.8724832214765099E-2</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E463" t="s">
+        <v>29</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G463" t="s">
+        <v>85</v>
+      </c>
+      <c r="H463"/>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A464" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B464" s="2">
+        <f>-1*B445*2200</f>
+        <v>-0.9412751677852349</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E464" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L403" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}"/>

--- a/premise/data/additional_inventories/lci-wind-turbines.xlsx
+++ b/premise/data/additional_inventories/lci-wind-turbines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise-johanna/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise-johanna/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7826F2B-281D-074B-BA9A-658D0F479D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B785E-A816-714B-BC9C-14E6A0548C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="760" windowWidth="32100" windowHeight="22720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wind turbines" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="206">
   <si>
     <t>Activity</t>
   </si>
@@ -629,6 +629,36 @@
   </si>
   <si>
     <t>treatment of foundation, for offshore wind turbine</t>
+  </si>
+  <si>
+    <t>wind turbine components assembly, for wind turbine</t>
+  </si>
+  <si>
+    <t>Originally from ecoinvent v.2/3: wind power plant construction, 2MW, fixed parts [GLO]. 0.5 kWh per kilogram of component.</t>
+  </si>
+  <si>
+    <t>wind turbine installation, for onshore wind turbine</t>
+  </si>
+  <si>
+    <t>Originally from ecoinvent v.2/3: wind power plant construction, 2MW, fixed parts [GLO]. Per kilogram of onshore turbine installed.</t>
+  </si>
+  <si>
+    <t>Originally, 10 kWh of diesel burned for a 133 ton-heavy 800kW turbine.</t>
+  </si>
+  <si>
+    <t>wind turbine installation, for offshore wind turbine</t>
+  </si>
+  <si>
+    <t>Originally, 650 MJ of diesel burned for a 133 ton-heavy 800kW turbine.</t>
+  </si>
+  <si>
+    <t>Originally, 876 MJ of diesel burned for a 247 ton-heavy 2MW turbine.</t>
+  </si>
+  <si>
+    <t>excavation, hydraulic digger</t>
+  </si>
+  <si>
+    <t>market for excavation, hydraulic digger</t>
   </si>
 </sst>
 </file>
@@ -639,9 +669,16 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -710,21 +747,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}">
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E445" sqref="E445"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E489" sqref="E489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8436,6 +8474,487 @@
         <v>193</v>
       </c>
     </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A467" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A468" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A469" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A470" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B470" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A471" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A472" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B472" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A474" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G474" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J474" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K474" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L474" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A475" s="2" t="str">
+        <f>B466</f>
+        <v>wind turbine components assembly, for wind turbine</v>
+      </c>
+      <c r="B475" s="2">
+        <v>1</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E475" s="2" t="str">
+        <f>B468</f>
+        <v>GLO</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G475" s="2" t="str">
+        <f>B470</f>
+        <v>wind turbine components assembly, for wind turbine</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A476" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B476" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F476" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G476" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H476"/>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A479" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A480" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A481" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A482" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B482" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A483" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A484" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B484" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A486" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K486" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L486" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A487" s="2" t="str">
+        <f>B478</f>
+        <v>wind turbine installation, for onshore wind turbine</v>
+      </c>
+      <c r="B487" s="2">
+        <v>1</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E487" s="2" t="str">
+        <f>B480</f>
+        <v>GLO</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G487" s="2" t="str">
+        <f>B482</f>
+        <v>wind turbine installation, for onshore wind turbine</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A488" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B488" s="2">
+        <f>(650/133000)</f>
+        <v>4.887218045112782E-3</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F488" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L488" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A489" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B489" s="2">
+        <f>10/133000</f>
+        <v>7.5187969924812026E-5</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F489" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G489" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H489"/>
+      <c r="L489" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A492" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A493" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A494" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A495" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B495" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A496" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A497" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B497" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A499" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H499" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I499" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J499" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K499" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L499" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A500" s="2" t="str">
+        <f>B491</f>
+        <v>wind turbine installation, for offshore wind turbine</v>
+      </c>
+      <c r="B500" s="2">
+        <v>1</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E500" s="2" t="str">
+        <f>B493</f>
+        <v>GLO</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G500" s="2" t="str">
+        <f>B495</f>
+        <v>wind turbine installation, for offshore wind turbine</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A501" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B501" s="2">
+        <f>(876/247000)</f>
+        <v>3.5465587044534413E-3</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F501" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L501" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A502" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B502" s="2">
+        <f>(52500/247000)</f>
+        <v>0.2125506072874494</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F502" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G502" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L403" xr:uid="{F405F435-5E2B-E644-83D2-BBB8FE808D59}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
